--- a/ValueSet-administrativegender-nosupplement-vs.xlsx
+++ b/ValueSet-administrativegender-nosupplement-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T21:06:14+00:00</t>
+    <t>2023-03-27T16:35:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
